--- a/UG_data_analysis/outputs/demographicsgroup4.xlsx
+++ b/UG_data_analysis/outputs/demographicsgroup4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1ACF2C-8D08-A848-BA66-BFA5A8C4D327}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15744149-2C05-9845-8F59-ED8103934185}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="460" windowWidth="20220" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="460" windowWidth="20220" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demographicsgroup4" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t xml:space="preserve"> N </t>
   </si>
@@ -266,9 +266,6 @@
     <t xml:space="preserve">     Ideator     </t>
   </si>
   <si>
-    <t>Hamilton Rating Scale for Depression - 16</t>
-  </si>
-  <si>
     <t>IIP</t>
   </si>
   <si>
@@ -299,12 +296,6 @@
     <t>Control &lt; Attempter, Depression, Ideator</t>
   </si>
   <si>
-    <t>Attempter &gt; Depression, Ideator; Ideator &gt; Depression</t>
-  </si>
-  <si>
-    <t>Control &lt; Attempter; Attempter &gt; Depression</t>
-  </si>
-  <si>
     <t>Control &lt; Attempter, Ideator</t>
   </si>
   <si>
@@ -320,9 +311,6 @@
     <t>% White</t>
   </si>
   <si>
-    <t>Income Per Capita (x $1000)</t>
-  </si>
-  <si>
     <t>18.2 (11.5)</t>
   </si>
   <si>
@@ -344,7 +332,16 @@
     <t>SIS</t>
   </si>
   <si>
-    <t>Demographic and clinical characteristics</t>
+    <t>HRSD - 16</t>
+  </si>
+  <si>
+    <t>SES (x $1000)</t>
+  </si>
+  <si>
+    <t>Attempter &gt; Ideator &gt; Depression</t>
+  </si>
+  <si>
+    <t>Control, Depression &lt; Attempter</t>
   </si>
 </sst>
 </file>
@@ -354,7 +351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,9 +498,27 @@
       <name val="Times Roman"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -876,47 +891,54 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -981,23 +1003,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>105735</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4DF38B-6A57-914D-A8DA-840368BEC965}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADD2BB0-FDAB-034B-8438-92F98E4B7A14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,8 +1035,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="469900" y="622300"/>
-          <a:ext cx="9541835" cy="3390900"/>
+          <a:off x="825500" y="3454400"/>
+          <a:ext cx="13830300" cy="5588000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1323,25 +1345,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H28"/>
+  <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="36.83203125" customWidth="1"/>
-    <col min="2" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>107</v>
-      </c>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1350,7 +1370,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10" ht="19">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>77</v>
@@ -1368,7 +1388,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10" ht="19">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>73</v>
@@ -1390,33 +1410,33 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10" ht="19">
       <c r="A5" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10" ht="19">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1440,9 +1460,9 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10" ht="19">
       <c r="A7" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="11">
         <v>0.51</v>
@@ -1464,9 +1484,9 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10" ht="19">
       <c r="A8" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="12">
         <v>0.83699999999999997</v>
@@ -1488,7 +1508,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10" ht="19">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1511,24 +1531,24 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19">
       <c r="A10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="F10" s="8">
         <v>149</v>
@@ -1537,12 +1557,12 @@
         <v>8</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19">
       <c r="A11" s="6" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>19</v>
@@ -1563,12 +1583,12 @@
         <v>8</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19">
       <c r="A12" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>49</v>
@@ -1588,11 +1608,14 @@
       <c r="G12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1614,13 +1637,11 @@
       <c r="G13" s="10">
         <v>0.16900000000000001</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="19">
       <c r="A14" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>23</v>
@@ -1641,12 +1662,12 @@
         <v>1.2E-2</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19">
       <c r="A15" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>27</v>
@@ -1667,10 +1688,10 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19">
       <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
@@ -1692,11 +1713,9 @@
       <c r="G16" s="10">
         <v>0.39100000000000001</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="19">
       <c r="A17" s="6" t="s">
         <v>57</v>
       </c>
@@ -1718,11 +1737,9 @@
       <c r="G17" s="10">
         <v>0.77200000000000002</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="19">
       <c r="A18" s="6" t="s">
         <v>62</v>
       </c>
@@ -1744,11 +1761,9 @@
       <c r="G18" s="10">
         <v>0.36299999999999999</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="19">
       <c r="A19" s="6" t="s">
         <v>67</v>
       </c>
@@ -1768,15 +1783,15 @@
         <v>143</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19">
       <c r="A20" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1786,9 +1801,9 @@
       <c r="G20" s="8"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="19">
       <c r="A21" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>36</v>
@@ -1806,15 +1821,15 @@
         <v>142</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19">
       <c r="A22" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>40</v>
@@ -1835,12 +1850,12 @@
         <v>8</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19">
       <c r="A23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>44</v>
@@ -1861,10 +1876,10 @@
         <v>1E-3</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17" thickBot="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" thickBot="1">
       <c r="A24" s="15" t="s">
         <v>31</v>
       </c>
@@ -1887,10 +1902,19 @@
         <v>8</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17" thickTop="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20" thickTop="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
     <row r="27" spans="1:8">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1912,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/UG_data_analysis/outputs/demographicsgroup4.xlsx
+++ b/UG_data_analysis/outputs/demographicsgroup4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15744149-2C05-9845-8F59-ED8103934185}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B38F20C-DC50-1E4F-87E0-F08A047D36BD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="460" windowWidth="20220" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="580" windowWidth="20220" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demographicsgroup4" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
   <si>
     <t xml:space="preserve"> N </t>
   </si>
@@ -179,66 +179,6 @@
     <t>15.4 (5.7)</t>
   </si>
   <si>
-    <t>IRI_PERSPECTIVE_TAKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   16.6 (4.6)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   18.2 (4.6)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   16.1 (5.1)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   17.2 (6.7)    </t>
-  </si>
-  <si>
-    <t>IRI_FANTASY_SCALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.8 (5.4)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.5 (4.5)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10.6 (5.9)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.0 (5.1)    </t>
-  </si>
-  <si>
-    <t>IRI_EMPATHETIC_CONCERN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   21.6 (3.9)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   21.5 (3.8)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   20.0 (4.6)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   21.0 (4.5)    </t>
-  </si>
-  <si>
-    <t>IRI_PERSONAL_DISTRESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10.6 (5.1)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.6 (3.9)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.8 (4.2)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10.6 (6.6)    </t>
-  </si>
-  <si>
     <t>Pairwise</t>
   </si>
   <si>
@@ -299,9 +239,6 @@
     <t>Control &lt; Attempter, Ideator</t>
   </si>
   <si>
-    <t xml:space="preserve">Control &lt; Attempter, Ideator </t>
-  </si>
-  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -342,6 +279,42 @@
   </si>
   <si>
     <t>Control, Depression &lt; Attempter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   28.4 (7.7)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   29.8 (6.6)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   26.8 (9.3)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   28.2 (7.7)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   32.2 (6.2)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   28.1 (5.1)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   28.8 (4.9)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.6 (8.1)    </t>
+  </si>
+  <si>
+    <t>Control &lt; Attempter</t>
+  </si>
+  <si>
+    <t>IRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Cognitive Empathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Affective Empathy</t>
   </si>
 </sst>
 </file>
@@ -891,7 +864,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,6 +913,10 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1010,16 +987,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADD2BB0-FDAB-034B-8438-92F98E4B7A14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{561C62E4-F944-7D4F-A008-BFA5A0A3E32A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1036,7 +1013,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="825500" y="3454400"/>
-          <a:ext cx="13830300" cy="5588000"/>
+          <a:ext cx="13804900" cy="5588000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1345,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J28"/>
+  <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1356,7 +1333,7 @@
     <col min="1" max="1" width="36.83203125" customWidth="1"/>
     <col min="2" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
     <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1373,16 +1350,16 @@
     <row r="3" spans="1:10" ht="19">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1391,16 +1368,16 @@
     <row r="4" spans="1:10" ht="19">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>2</v>
@@ -1412,28 +1389,28 @@
     </row>
     <row r="5" spans="1:10" ht="19">
       <c r="A5" s="9" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19">
@@ -1462,7 +1439,7 @@
     </row>
     <row r="7" spans="1:10" ht="19">
       <c r="A7" s="6" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B7" s="11">
         <v>0.51</v>
@@ -1486,7 +1463,7 @@
     </row>
     <row r="8" spans="1:10" ht="19">
       <c r="A8" s="6" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B8" s="12">
         <v>0.83699999999999997</v>
@@ -1531,24 +1508,24 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19">
       <c r="A10" s="6" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F10" s="8">
         <v>149</v>
@@ -1557,12 +1534,12 @@
         <v>8</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19">
       <c r="A11" s="6" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>19</v>
@@ -1583,12 +1560,12 @@
         <v>8</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19">
       <c r="A12" s="6" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>49</v>
@@ -1609,10 +1586,10 @@
         <v>8</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19">
@@ -1641,7 +1618,7 @@
     </row>
     <row r="14" spans="1:10" ht="19">
       <c r="A14" s="6" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>23</v>
@@ -1662,12 +1639,12 @@
         <v>1.2E-2</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19">
       <c r="A15" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>27</v>
@@ -1688,232 +1665,202 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19">
       <c r="A16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="8">
+        <v>95</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="19">
+      <c r="A17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="22">
         <v>143</v>
       </c>
-      <c r="G16" s="10">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" ht="19">
-      <c r="A17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="G17" s="22">
+        <v>0.499</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="19">
+      <c r="A18" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="22">
         <v>143</v>
       </c>
-      <c r="G17" s="10">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" ht="19">
-      <c r="A18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="8">
-        <v>143</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="H18" s="13"/>
+      <c r="G18" s="22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="19">
       <c r="A19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" ht="19">
+      <c r="A20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="8">
+        <v>142</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="H20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="8">
-        <v>143</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19">
-      <c r="A20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="19">
-      <c r="A21" s="14" t="s">
-        <v>83</v>
+      <c r="A21" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F21" s="8">
         <v>142</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19">
       <c r="A22" s="6" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F22" s="8">
         <v>142</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20" thickBot="1">
+      <c r="A23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="16">
+        <v>142</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="19">
-      <c r="A23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="8">
-        <v>142</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20" thickBot="1">
-      <c r="A24" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="16">
-        <v>142</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="20" thickTop="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="H23" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" thickTop="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" s="1"/>
@@ -1921,14 +1868,9 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1936,7 +1878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/UG_data_analysis/outputs/demographicsgroup4.xlsx
+++ b/UG_data_analysis/outputs/demographicsgroup4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B38F20C-DC50-1E4F-87E0-F08A047D36BD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F8DB55-B914-3745-AF66-A6DA10FA0463}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="580" windowWidth="20220" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15640" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demographicsgroup4" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
   <si>
     <t xml:space="preserve"> N </t>
   </si>
@@ -239,9 +239,6 @@
     <t>Control &lt; Attempter, Ideator</t>
   </si>
   <si>
-    <t>Variables</t>
-  </si>
-  <si>
     <t>% Male</t>
   </si>
   <si>
@@ -315,6 +312,15 @@
   </si>
   <si>
     <t xml:space="preserve">   Affective Empathy</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>3.9 (2.2)</t>
+  </si>
+  <si>
+    <t>Predictors</t>
   </si>
 </sst>
 </file>
@@ -864,7 +870,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -917,6 +923,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -980,29 +989,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{561C62E4-F944-7D4F-A008-BFA5A0A3E32A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A77EE7-F5B8-8446-9024-AE7F410D3B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
@@ -1012,8 +1019,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="825500" y="3454400"/>
-          <a:ext cx="13804900" cy="5588000"/>
+          <a:off x="2133600" y="7924800"/>
+          <a:ext cx="7054850" cy="2855595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1322,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J27"/>
+  <dimension ref="A2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1388,8 +1395,8 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="19">
-      <c r="A5" s="9" t="s">
-        <v>72</v>
+      <c r="A5" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>66</v>
@@ -1439,7 +1446,7 @@
     </row>
     <row r="7" spans="1:10" ht="19">
       <c r="A7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="11">
         <v>0.51</v>
@@ -1463,7 +1470,7 @@
     </row>
     <row r="8" spans="1:10" ht="19">
       <c r="A8" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="12">
         <v>0.83699999999999997</v>
@@ -1513,19 +1520,19 @@
     </row>
     <row r="10" spans="1:10" ht="19">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="F10" s="8">
         <v>149</v>
@@ -1539,28 +1546,28 @@
     </row>
     <row r="11" spans="1:10" ht="19">
       <c r="A11" s="6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F11" s="8">
-        <v>149</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19">
@@ -1568,305 +1575,329 @@
         <v>81</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F12" s="8">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>84</v>
+      <c r="H12" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19">
       <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F13" s="8">
-        <v>149</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="H13" s="13"/>
+        <v>114</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="19">
       <c r="A14" s="6" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F14" s="8">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G14" s="10">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="19">
       <c r="A15" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G15" s="10">
-        <v>7.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19">
       <c r="A16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="8">
+        <v>144</v>
+      </c>
+      <c r="G16" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="19">
-      <c r="A17" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="22">
-        <v>143</v>
-      </c>
-      <c r="G17" s="22">
-        <v>0.499</v>
-      </c>
+      <c r="A17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="19">
       <c r="A18" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F18" s="22">
         <v>143</v>
       </c>
       <c r="G18" s="22">
+        <v>0.499</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="19">
+      <c r="A19" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="22">
+        <v>143</v>
+      </c>
+      <c r="G19" s="22">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19">
-      <c r="A19" s="6" t="s">
+      <c r="H19" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19">
+      <c r="A20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" ht="19">
-      <c r="A20" s="14" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="19">
+      <c r="A21" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" s="8">
-        <v>142</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="19">
-      <c r="A21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="F21" s="8">
         <v>142</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19">
       <c r="A22" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F22" s="8">
         <v>142</v>
       </c>
-      <c r="G22" s="8">
-        <v>1E-3</v>
+      <c r="G22" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20" thickBot="1">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:8" ht="19">
+      <c r="A23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="8">
+        <v>142</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" thickBot="1">
+      <c r="A24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B24" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D24" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F24" s="16">
         <v>142</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G24" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H24" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20" thickTop="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+    <row r="25" spans="1:8" ht="20" thickTop="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1878,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/UG_data_analysis/outputs/demographicsgroup4.xlsx
+++ b/UG_data_analysis/outputs/demographicsgroup4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1F656A-BB78-994A-A78F-52A8DD9C6A74}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0170DBCB-57B6-3F43-9394-59274321DFA7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="2820" windowWidth="21600" windowHeight="12140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demographicsgroup4" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="193">
   <si>
     <t xml:space="preserve"> N </t>
   </si>
@@ -594,6 +594,12 @@
   </si>
   <si>
     <t xml:space="preserve">Attempter &gt; Ideator </t>
+  </si>
+  <si>
+    <t>controls, depressed, ideators, attempters.</t>
+  </si>
+  <si>
+    <t>Suicide Ideation Scale</t>
   </si>
 </sst>
 </file>
@@ -603,7 +609,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -782,6 +788,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1154,7 +1189,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1226,6 +1261,56 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1581,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J28"/>
+  <dimension ref="A2:S46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1596,6 +1681,8 @@
     <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -1943,7 +2030,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:19">
       <c r="A17" s="8" t="s">
         <v>88</v>
       </c>
@@ -1955,7 +2042,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:19">
       <c r="A18" s="18" t="s">
         <v>89</v>
       </c>
@@ -1979,7 +2066,7 @@
       </c>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:19">
       <c r="A19" s="18" t="s">
         <v>90</v>
       </c>
@@ -2005,7 +2092,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:19">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -2017,7 +2104,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:19">
       <c r="A21" s="20" t="s">
         <v>61</v>
       </c>
@@ -2043,7 +2130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:19">
       <c r="A22" s="8" t="s">
         <v>60</v>
       </c>
@@ -2069,7 +2156,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:19">
       <c r="A23" s="8" t="s">
         <v>62</v>
       </c>
@@ -2095,7 +2182,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" thickBot="1">
+    <row r="24" spans="1:19" ht="17" thickBot="1">
       <c r="A24" s="21" t="s">
         <v>30</v>
       </c>
@@ -2120,8 +2207,24 @@
       <c r="H24" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="20" thickTop="1">
+      <c r="L24" s="30"/>
+      <c r="M24" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+    </row>
+    <row r="25" spans="1:19" ht="20" thickTop="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2130,18 +2233,519 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="L25" s="32"/>
+      <c r="M25" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" s="32"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="L26" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="S26" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="L27" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="34">
+        <v>149</v>
+      </c>
+      <c r="R27" s="37">
+        <v>0.432</v>
+      </c>
+      <c r="S27" s="32"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="29" t="s">
+        <v>191</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
+      <c r="L28" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="N28" s="39">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="O28" s="39">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="P28" s="38">
+        <v>0.51</v>
+      </c>
+      <c r="Q28" s="34">
+        <v>149</v>
+      </c>
+      <c r="R28" s="37">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="S28" s="32"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="L29" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" s="39">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="N29" s="39">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="O29" s="39">
+        <v>0.875</v>
+      </c>
+      <c r="P29" s="39">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="Q29" s="34">
+        <v>149</v>
+      </c>
+      <c r="R29" s="37">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="S29" s="32"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="L30" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="34">
+        <v>149</v>
+      </c>
+      <c r="R30" s="37">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S30" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="L31" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q31" s="34">
+        <v>149</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S31" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="L32" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="O32" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="P32" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q32" s="34">
+        <v>49</v>
+      </c>
+      <c r="R32" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="S32" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="12:19">
+      <c r="L33" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="34">
+        <v>114</v>
+      </c>
+      <c r="R33" s="34">
+        <v>0.46</v>
+      </c>
+      <c r="S33" s="40"/>
+    </row>
+    <row r="34" spans="12:19">
+      <c r="L34" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="N34" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q34" s="34">
+        <v>81</v>
+      </c>
+      <c r="R34" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S34" s="41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="12:19">
+      <c r="L35" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="34">
+        <v>149</v>
+      </c>
+      <c r="R35" s="37">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="S35" s="40"/>
+    </row>
+    <row r="36" spans="12:19">
+      <c r="L36" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="34">
+        <v>143</v>
+      </c>
+      <c r="R36" s="37">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S36" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="12:19">
+      <c r="L37" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q37" s="34">
+        <v>144</v>
+      </c>
+      <c r="R37" s="37">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S37" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="12:19">
+      <c r="L38" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="40"/>
+    </row>
+    <row r="39" spans="12:19">
+      <c r="L39" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="M39" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="N39" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="O39" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q39" s="43">
+        <v>143</v>
+      </c>
+      <c r="R39" s="43">
+        <v>0.499</v>
+      </c>
+      <c r="S39" s="40"/>
+    </row>
+    <row r="40" spans="12:19">
+      <c r="L40" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="N40" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="O40" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="P40" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q40" s="43">
+        <v>143</v>
+      </c>
+      <c r="R40" s="43">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S40" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="12:19">
+      <c r="L41" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="44"/>
+    </row>
+    <row r="42" spans="12:19">
+      <c r="L42" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N42" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="P42" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q42" s="34">
+        <v>142</v>
+      </c>
+      <c r="R42" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S42" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="12:19">
+      <c r="L43" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M43" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="O43" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q43" s="34">
+        <v>142</v>
+      </c>
+      <c r="R43" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="12:19">
+      <c r="L44" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="M44" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="O44" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q44" s="34">
+        <v>142</v>
+      </c>
+      <c r="R44" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="S44" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="12:19" ht="17" thickBot="1">
+      <c r="L45" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="46">
+        <v>142</v>
+      </c>
+      <c r="R45" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="12:19" ht="17" thickTop="1">
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2153,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DD3813-2E0C-654F-A430-27FFCBBBE021}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
